--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>drop</t>
@@ -61,45 +64,42 @@
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -121,34 +121,37 @@
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
@@ -157,40 +160,46 @@
     <t>gt</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
@@ -199,22 +208,13 @@
     <t>increase</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>need</t>
   </si>
   <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
@@ -575,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +586,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +718,13 @@
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -762,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.821917808219178</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8511749347258486</v>
+        <v>0.84375</v>
       </c>
       <c r="L7">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6271186440677966</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5891472868217055</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C9">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.5988372093023255</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5873015873015873</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,31 +1062,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8292682926829268</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L11">
+        <v>315</v>
+      </c>
+      <c r="M11">
+        <v>315</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>68</v>
-      </c>
-      <c r="M11">
-        <v>68</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5704697986577181</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.828125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4545454545454545</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4533333333333333</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.8113207547169812</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4464285714285715</v>
+        <v>0.44</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.79375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,37 +1344,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3246753246753247</v>
+        <v>0.3386454183266932</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1394,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2896825396825397</v>
+        <v>0.3125</v>
       </c>
       <c r="C18">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,37 +1444,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2412868632707775</v>
+        <v>0.2291105121293801</v>
       </c>
       <c r="C19">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1518,13 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,31 +1544,31 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03816131830008673</v>
+        <v>0.04080310880829015</v>
       </c>
       <c r="C21">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="E21">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F21">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1109</v>
+        <v>2962</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L21">
         <v>35</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,37 +1594,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.03630470016207456</v>
+        <v>0.03546712802768166</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F22">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2973</v>
+        <v>1115</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6617647058823529</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,37 +1644,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.02688679245283019</v>
+        <v>0.02650260293421675</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E23">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="F23">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6307692307692307</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,19 +1694,19 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008069722401549387</v>
+        <v>0.01094303186353396</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>128</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="F24">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1718,13 +1718,13 @@
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1744,13 +1744,13 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.6108786610878661</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L25">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="M25">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,10 +1773,10 @@
         <v>0.6</v>
       </c>
       <c r="L26">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1796,13 +1796,13 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5857142857142857</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1822,13 +1822,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.58</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1848,13 +1848,13 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5730337078651685</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1874,25 +1874,25 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5294117647058824</v>
+        <v>0.5672268907563025</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1900,13 +1900,13 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.4246575342465753</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1926,13 +1926,13 @@
         <v>60</v>
       </c>
       <c r="K32">
-        <v>0.3717948717948718</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1952,13 +1952,13 @@
         <v>61</v>
       </c>
       <c r="K33">
-        <v>0.217741935483871</v>
+        <v>0.40625</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1978,25 +1978,25 @@
         <v>62</v>
       </c>
       <c r="K34">
-        <v>0.1513513513513514</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L34">
         <v>28</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>157</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2004,25 +2004,25 @@
         <v>63</v>
       </c>
       <c r="K35">
-        <v>0.1009771986970684</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>276</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2030,13 +2030,13 @@
         <v>64</v>
       </c>
       <c r="K36">
-        <v>0.07449856733524356</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>323</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2056,25 +2056,25 @@
         <v>65</v>
       </c>
       <c r="K37">
-        <v>0.06490384615384616</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>389</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2082,77 +2082,103 @@
         <v>66</v>
       </c>
       <c r="K38">
-        <v>0.03924646781789639</v>
+        <v>0.07951807228915662</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.34</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>612</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.03243073047858942</v>
+        <v>0.03567447045707915</v>
       </c>
       <c r="L39">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="N39">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="O39">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3073</v>
+        <v>865</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="K40">
-        <v>0.03240223463687151</v>
+        <v>0.02968108620145248</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="N40">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="O40">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>866</v>
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41">
+        <v>0.01437470052707235</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>86</v>
+      </c>
+      <c r="N41">
+        <v>0.35</v>
+      </c>
+      <c r="O41">
+        <v>0.65</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
